--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Sele-Cd44.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Sele-Cd44.xlsx
@@ -534,10 +534,10 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>7.321929333333332</v>
+        <v>0.5273163333333333</v>
       </c>
       <c r="H2">
-        <v>21.965788</v>
+        <v>1.581949</v>
       </c>
       <c r="I2">
         <v>1</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>261.380203</v>
+        <v>7.487621999999999</v>
       </c>
       <c r="N2">
-        <v>784.140609</v>
+        <v>22.462866</v>
       </c>
       <c r="O2">
-        <v>0.6968677182772199</v>
+        <v>0.1384395179233961</v>
       </c>
       <c r="P2">
-        <v>0.69686771827722</v>
+        <v>0.1384395179233961</v>
       </c>
       <c r="Q2">
-        <v>1913.807375498321</v>
+        <v>3.948345378425999</v>
       </c>
       <c r="R2">
-        <v>17224.26637948489</v>
+        <v>35.53510840583399</v>
       </c>
       <c r="S2">
-        <v>0.6968677182772199</v>
+        <v>0.1384395179233961</v>
       </c>
       <c r="T2">
-        <v>0.69686771827722</v>
+        <v>0.1384395179233961</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,10 +596,10 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>7.321929333333332</v>
+        <v>0.5273163333333333</v>
       </c>
       <c r="H3">
-        <v>21.965788</v>
+        <v>1.581949</v>
       </c>
       <c r="I3">
         <v>1</v>
@@ -620,22 +620,22 @@
         <v>95.998284</v>
       </c>
       <c r="O3">
-        <v>0.08531391482826334</v>
+        <v>0.5916411627275552</v>
       </c>
       <c r="P3">
-        <v>0.08531391482826335</v>
+        <v>0.5916411627275552</v>
       </c>
       <c r="Q3">
-        <v>234.2975505230879</v>
+        <v>16.873821041724</v>
       </c>
       <c r="R3">
-        <v>2108.677954707792</v>
+        <v>151.864389375516</v>
       </c>
       <c r="S3">
-        <v>0.08531391482826334</v>
+        <v>0.5916411627275552</v>
       </c>
       <c r="T3">
-        <v>0.08531391482826335</v>
+        <v>0.5916411627275552</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,10 +658,10 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>7.321929333333332</v>
+        <v>0.5273163333333333</v>
       </c>
       <c r="H4">
-        <v>21.965788</v>
+        <v>1.581949</v>
       </c>
       <c r="I4">
         <v>1</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>81.69901900000001</v>
+        <v>14.59882166666667</v>
       </c>
       <c r="N4">
-        <v>245.097057</v>
+        <v>43.796465</v>
       </c>
       <c r="O4">
-        <v>0.2178183668945166</v>
+        <v>0.2699193193490487</v>
       </c>
       <c r="P4">
-        <v>0.2178183668945167</v>
+        <v>0.2699193193490487</v>
       </c>
       <c r="Q4">
-        <v>598.1944437206573</v>
+        <v>7.698197112253887</v>
       </c>
       <c r="R4">
-        <v>5383.749993485915</v>
+        <v>69.28377401028499</v>
       </c>
       <c r="S4">
-        <v>0.2178183668945166</v>
+        <v>0.2699193193490487</v>
       </c>
       <c r="T4">
-        <v>0.2178183668945167</v>
+        <v>0.2699193193490487</v>
       </c>
     </row>
   </sheetData>
